--- a/goarchive.xlsx
+++ b/goarchive.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -58,10 +58,16 @@
     <t>fxml</t>
   </si>
   <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>periode</t>
+  </si>
+  <si>
     <t>jyv</t>
   </si>
   <si>
-    <t>bonjour</t>
+    <t>bon"jour</t>
   </si>
   <si>
     <t>true</t>
@@ -76,13 +82,82 @@
     <t>daniel</t>
   </si>
   <si>
-    <t>bonjour2</t>
+    <t>bon,jour2</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
     <t>ttt</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>trr</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>dd'd</t>
+  </si>
+  <si>
+    <t>tre</t>
+  </si>
+  <si>
+    <t>t5</t>
+  </si>
+  <si>
+    <t>fff</t>
+  </si>
+  <si>
+    <t>gfd</t>
+  </si>
+  <si>
+    <t>t6</t>
+  </si>
+  <si>
+    <t>gg</t>
+  </si>
+  <si>
+    <t>jhg</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>iuy</t>
+  </si>
+  <si>
+    <t>t8</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>lkjh</t>
+  </si>
+  <si>
+    <t>kk""k</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>lll</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>r5</t>
+  </si>
+  <si>
+    <t>zxc</t>
   </si>
 </sst>
 </file>
@@ -117,8 +192,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
+      <alignment/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="false">
       <alignment/>
     </xf>
@@ -447,13 +576,19 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>43970</v>
@@ -468,28 +603,34 @@
         <v>0.1234</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J2">
         <v>12.34</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2">
         <v>23.450000762939453</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N2">
         <v>0</v>
+      </c>
+      <c r="O2">
+        <v>123</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -497,7 +638,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="3">
         <v>44542</v>
@@ -512,28 +653,484 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J3">
         <v>233</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L3">
         <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3">
         <v>0</v>
+      </c>
+      <c r="O3">
+        <v>124</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5">
+        <v>41255</v>
+      </c>
+      <c r="D4" s="6">
+        <v>41255</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4">
+        <v>34</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>54</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>123</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7">
+        <v>41255</v>
+      </c>
+      <c r="D5" s="8">
+        <v>41255</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>123</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="9">
+        <v>41255</v>
+      </c>
+      <c r="D6" s="10">
+        <v>41255</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>123</v>
+      </c>
+      <c r="P6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="11">
+        <v>41255</v>
+      </c>
+      <c r="D7" s="12">
+        <v>41255</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7">
+        <v>76</v>
+      </c>
+      <c r="K7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>123</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13">
+        <v>41255</v>
+      </c>
+      <c r="D8" s="14">
+        <v>41255</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>123</v>
+      </c>
+      <c r="P8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="15">
+        <v>41255</v>
+      </c>
+      <c r="D9" s="16">
+        <v>41255</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>124</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="17">
+        <v>41255</v>
+      </c>
+      <c r="D10" s="18">
+        <v>41255</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>124</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="19">
+        <v>41255</v>
+      </c>
+      <c r="D11" s="20">
+        <v>41255</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="F11">
+        <v>44</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11">
+        <v>77</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
+        <v>435</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>123</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="21">
+        <v>41255</v>
+      </c>
+      <c r="D12" s="22">
+        <v>41255</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>124</v>
+      </c>
+      <c r="P12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
